--- a/biology/Botanique/Spadice/Spadice.xlsx
+++ b/biology/Botanique/Spadice/Spadice.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le spadice est une inflorescence particulière formée d'un épi entouré d'une grande bractée appelée spathe. C'est l'inflorescence caractéristique de la famille des Aracées (les arums) et des Arécacées (les palmiers), formant un pseudanthium. Elle mime une fleur simple, très décorative, et à ce titre est présente chez les fleuristes (Arum, Anthurium,...).
 Chez l'arum, l'épi est constitué d'un axe charnu et relativement épais, en forme de colonne, sur lequel sont fixées des fleurs minuscules et spécialisées, des fleurs femelles réduites à l'ovaire à la base, puis des fleurs mâles réduites aux étamines au-dessus, enfin des fleurs stériles. À l'extrémité, l'axe forme une sorte de massue. Le spadice de l'arum titan est la plus grande inflorescence au monde.
